--- a/Test Scenario.xlsx
+++ b/Test Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezay\Documents\project Amazon\react-portfolio-master\MobileTesting_FinalProjekKatalonReza_KSAT006ONL015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBBC25C-97B8-4470-8A2E-089EAAB3D49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C6A6A-E542-4C8F-8875-B1E05E68B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F3BC68-EE03-4DE7-A275-6735470B43C9}"/>
+    <workbookView minimized="1" xWindow="6495" yWindow="16545" windowWidth="17280" windowHeight="7815" xr2:uid="{36F3BC68-EE03-4DE7-A275-6735470B43C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,15 +524,15 @@
     <t>BCA</t>
   </si>
   <si>
+    <t>BNI                                             100</t>
+  </si>
+  <si>
+    <t>account name = BCA
+balance = 9000</t>
+  </si>
+  <si>
     <t>account name =BNI
-balance = 500</t>
-  </si>
-  <si>
-    <t>BNI                                             100</t>
-  </si>
-  <si>
-    <t>account name = Gopay
-balance = 9000</t>
+balance = 123000</t>
   </si>
 </sst>
 </file>
@@ -1396,38 +1396,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1435,197 +1579,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1944,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300DC7BD-3D26-45EA-BCC5-6E2EB8AE646A}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56:I60"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1959,20 +1959,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99"/>
+      <c r="B1" s="69"/>
       <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="29"/>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="99"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="71"/>
       <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1987,22 +1987,22 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="99"/>
+      <c r="B3" s="69"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="29"/>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="99"/>
-      <c r="G3" s="109">
+      <c r="F3" s="69"/>
+      <c r="G3" s="73">
         <v>44754</v>
       </c>
-      <c r="H3" s="107"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2017,15 +2017,15 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="29"/>
-      <c r="E5" s="100" t="s">
+      <c r="E5" s="88" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="31" t="s">
@@ -2044,7 +2044,7 @@
       <c r="B6" s="29"/>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
-      <c r="E6" s="82"/>
+      <c r="E6" s="89"/>
       <c r="F6" s="5">
         <v>16</v>
       </c>
@@ -2077,10 +2077,10 @@
       <c r="C8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="36" t="s">
         <v>14</v>
       </c>
@@ -2095,19 +2095,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="94" t="s">
+      <c r="D9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="95"/>
+      <c r="E9" s="81"/>
       <c r="F9" s="39"/>
       <c r="G9" s="40" t="s">
         <v>21</v>
@@ -2115,18 +2115,18 @@
       <c r="H9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="116" t="s">
+      <c r="I9" s="121" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="96" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="97"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="39"/>
       <c r="G10" s="41" t="s">
         <v>23</v>
@@ -2134,31 +2134,31 @@
       <c r="H10" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="117"/>
+      <c r="I10" s="122"/>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="96" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="97"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="117"/>
+      <c r="I11" s="122"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="90"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="86" t="s">
+      <c r="A12" s="92"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="87"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="44"/>
       <c r="G12" s="45" t="s">
         <v>26</v>
@@ -2166,20 +2166,20 @@
       <c r="H12" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="118"/>
+      <c r="I12" s="123"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="89"/>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="95"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="39"/>
       <c r="G13" s="40" t="s">
         <v>21</v>
@@ -2187,18 +2187,18 @@
       <c r="H13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="124" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="96" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="97"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="39"/>
       <c r="G14" s="41" t="s">
         <v>23</v>
@@ -2206,31 +2206,31 @@
       <c r="H14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="114"/>
+      <c r="I14" s="125"/>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="96" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="97"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="114"/>
+      <c r="I15" s="125"/>
     </row>
     <row r="16" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="86" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="46"/>
       <c r="G16" s="45" t="s">
         <v>28</v>
@@ -2238,20 +2238,20 @@
       <c r="H16" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="115"/>
+      <c r="I16" s="126"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="89"/>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="95"/>
+      <c r="E17" s="81"/>
       <c r="F17" s="39"/>
       <c r="G17" s="40" t="s">
         <v>21</v>
@@ -2259,18 +2259,18 @@
       <c r="H17" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="96" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="97"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="39"/>
       <c r="G18" s="41" t="s">
         <v>23</v>
@@ -2278,31 +2278,31 @@
       <c r="H18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="111"/>
+      <c r="I18" s="75"/>
     </row>
     <row r="19" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="96" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="97"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43"/>
-      <c r="I19" s="111"/>
+      <c r="I19" s="75"/>
     </row>
     <row r="20" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="86" t="s">
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="87"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="44"/>
       <c r="G20" s="45" t="s">
         <v>30</v>
@@ -2310,22 +2310,22 @@
       <c r="H20" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="112"/>
+      <c r="I20" s="76"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="88" t="s">
+      <c r="A21" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="95"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="48"/>
       <c r="G21" s="40" t="s">
         <v>21</v>
@@ -2333,33 +2333,33 @@
       <c r="H21" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="120" t="s">
+      <c r="I21" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="96" t="s">
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="97"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="50"/>
-      <c r="I22" s="121"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="86" t="s">
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="87"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="51"/>
       <c r="G23" s="45" t="s">
         <v>35</v>
@@ -2367,20 +2367,20 @@
       <c r="H23" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="122"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="61" t="s">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="95"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="39"/>
       <c r="G24" s="40" t="s">
         <v>21</v>
@@ -2388,33 +2388,33 @@
       <c r="H24" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="120" t="s">
+      <c r="I24" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="96" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="97"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="42"/>
       <c r="H25" s="50"/>
-      <c r="I25" s="121"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="86" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="87"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="46"/>
       <c r="G26" s="45" t="s">
         <v>36</v>
@@ -2422,20 +2422,20 @@
       <c r="H26" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="122"/>
+      <c r="I26" s="60"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="61" t="s">
+      <c r="B27" s="78"/>
+      <c r="C27" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="95"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="48"/>
       <c r="G27" s="40" t="s">
         <v>21</v>
@@ -2443,33 +2443,33 @@
       <c r="H27" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="120" t="s">
+      <c r="I27" s="57" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="96" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="97"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G28" s="42"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="121"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="86" t="s">
+      <c r="I28" s="58"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A29" s="78"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="87"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="51"/>
       <c r="G29" s="45" t="s">
         <v>35</v>
@@ -2477,22 +2477,22 @@
       <c r="H29" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="122"/>
+      <c r="I29" s="60"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="61" t="s">
+      <c r="C30" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="91"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="7"/>
       <c r="G30" s="52" t="s">
         <v>21</v>
@@ -2500,18 +2500,18 @@
       <c r="H30" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="120" t="s">
+      <c r="I30" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="64" t="s">
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="76"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="1"/>
       <c r="G31" s="8" t="s">
         <v>41</v>
@@ -2519,31 +2519,31 @@
       <c r="H31" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="121"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="1"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="121"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="90"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="79" t="s">
+      <c r="A33" s="92"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="92"/>
+      <c r="E33" s="101"/>
       <c r="F33" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>44</v>
@@ -2551,20 +2551,20 @@
       <c r="H33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="124"/>
+      <c r="I33" s="59"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="61" t="s">
+      <c r="B34" s="78"/>
+      <c r="C34" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="69" t="s">
+      <c r="D34" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="70"/>
+      <c r="E34" s="105"/>
       <c r="F34" s="14"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -2572,18 +2572,18 @@
       <c r="H34" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="125" t="s">
+      <c r="I34" s="61" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="64" t="s">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="106"/>
       <c r="F35" s="14"/>
       <c r="G35" s="9" t="s">
         <v>41</v>
@@ -2591,30 +2591,30 @@
       <c r="H35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="119"/>
+      <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="64" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="106"/>
       <c r="G36" s="9"/>
       <c r="H36" s="15"/>
-      <c r="I36" s="119"/>
+      <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="79" t="s">
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="107"/>
       <c r="F37" s="16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>45</v>
@@ -2622,22 +2622,22 @@
       <c r="H37" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="123"/>
+      <c r="I37" s="63"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="14"/>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -2645,18 +2645,18 @@
       <c r="H38" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="125" t="s">
+      <c r="I38" s="61" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="81"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="64" t="s">
+      <c r="A39" s="109"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="66"/>
+      <c r="E39" s="114"/>
       <c r="F39" s="14"/>
       <c r="G39" s="9" t="s">
         <v>48</v>
@@ -2664,31 +2664,31 @@
       <c r="H39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="119"/>
+      <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="81"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="84"/>
-      <c r="D40" s="64" t="s">
+      <c r="A40" s="109"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="126" t="s">
-        <v>103</v>
+      <c r="E40" s="114"/>
+      <c r="F40" s="55" t="s">
+        <v>102</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="119"/>
+      <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="81"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="64" t="s">
+      <c r="A41" s="109"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="76"/>
+      <c r="E41" s="99"/>
       <c r="F41" s="8"/>
       <c r="G41" s="19" t="s">
         <v>51</v>
@@ -2696,33 +2696,33 @@
       <c r="H41" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="119"/>
+      <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="77"/>
+      <c r="A42" s="89"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="116"/>
       <c r="F42" s="21"/>
       <c r="G42" s="13"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="123"/>
+      <c r="I42" s="63"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D43" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="70"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="14"/>
       <c r="G43" s="24" t="s">
         <v>21</v>
@@ -2730,18 +2730,18 @@
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="128" t="s">
+      <c r="I43" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="64" t="s">
+      <c r="A44" s="108"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="66"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="14"/>
       <c r="G44" s="23" t="s">
         <v>54</v>
@@ -2749,44 +2749,44 @@
       <c r="H44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="121"/>
+      <c r="I44" s="58"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="64" t="s">
+      <c r="A45" s="108"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="66"/>
+      <c r="E45" s="114"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="121"/>
+      <c r="I45" s="58"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="64" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="76"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="8" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="121"/>
+      <c r="I46" s="58"/>
     </row>
     <row r="47" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="78"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="67" t="s">
+      <c r="A47" s="117"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="75"/>
+      <c r="E47" s="119"/>
       <c r="F47" s="21"/>
       <c r="G47" s="11" t="s">
         <v>58</v>
@@ -2794,20 +2794,20 @@
       <c r="H47" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="124"/>
+      <c r="I47" s="59"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="72"/>
-      <c r="C48" s="61" t="s">
+      <c r="B48" s="111"/>
+      <c r="C48" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="69" t="s">
+      <c r="D48" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="70"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="14"/>
       <c r="G48" s="24" t="s">
         <v>21</v>
@@ -2815,18 +2815,18 @@
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="128" t="s">
+      <c r="I48" s="64" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="64" t="s">
+      <c r="A49" s="108"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="86"/>
+      <c r="D49" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="66"/>
+      <c r="E49" s="114"/>
       <c r="F49" s="14"/>
       <c r="G49" s="24" t="s">
         <v>54</v>
@@ -2834,31 +2834,31 @@
       <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="121"/>
+      <c r="I49" s="58"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="55"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="64" t="s">
+      <c r="A50" s="108"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="66"/>
-      <c r="F50" s="127">
+      <c r="E50" s="114"/>
+      <c r="F50" s="56">
         <v>500</v>
       </c>
       <c r="G50" s="54"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="121"/>
+      <c r="I50" s="58"/>
     </row>
     <row r="51" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="56"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="67" t="s">
+      <c r="A51" s="120"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="75"/>
+      <c r="E51" s="119"/>
       <c r="F51" s="25"/>
       <c r="G51" s="26" t="s">
         <v>61</v>
@@ -2866,20 +2866,20 @@
       <c r="H51" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="122"/>
+      <c r="I51" s="60"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="72"/>
-      <c r="C52" s="61" t="s">
+      <c r="B52" s="111"/>
+      <c r="C52" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="70"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="14"/>
       <c r="G52" s="24" t="s">
         <v>21</v>
@@ -2887,18 +2887,18 @@
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="120" t="s">
+      <c r="I52" s="57" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="55"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="64" t="s">
+      <c r="A53" s="108"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="66"/>
+      <c r="E53" s="114"/>
       <c r="F53" s="14"/>
       <c r="G53" s="24" t="s">
         <v>54</v>
@@ -2906,31 +2906,31 @@
       <c r="H53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="121"/>
+      <c r="I53" s="58"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="55"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="64" t="s">
+      <c r="A54" s="108"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="66"/>
-      <c r="F54" s="126">
+      <c r="E54" s="114"/>
+      <c r="F54" s="55">
         <v>9000000</v>
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="121"/>
+      <c r="I54" s="58"/>
     </row>
     <row r="55" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="56"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="67" t="s">
+      <c r="A55" s="120"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="75"/>
+      <c r="E55" s="119"/>
       <c r="F55" s="25"/>
       <c r="G55" s="26" t="s">
         <v>62</v>
@@ -2938,22 +2938,22 @@
       <c r="H55" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="122"/>
+      <c r="I55" s="60"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="C56" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="65"/>
+      <c r="E56" s="106"/>
       <c r="F56" s="14"/>
       <c r="G56" s="24" t="s">
         <v>21</v>
@@ -2961,18 +2961,18 @@
       <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="129" t="s">
+      <c r="I56" s="65" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="55"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="64" t="s">
+      <c r="A57" s="108"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="66"/>
+      <c r="E57" s="114"/>
       <c r="F57" s="14"/>
       <c r="G57" s="24" t="s">
         <v>65</v>
@@ -2980,45 +2980,45 @@
       <c r="H57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="130"/>
+      <c r="I57" s="66"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="64" t="s">
+      <c r="A58" s="108"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="66"/>
+      <c r="E58" s="114"/>
       <c r="F58" s="23" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="9"/>
-      <c r="I58" s="130"/>
+      <c r="I58" s="66"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="55"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="64" t="s">
+      <c r="A59" s="108"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="66"/>
+      <c r="E59" s="114"/>
       <c r="F59" s="14" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="9"/>
-      <c r="I59" s="130"/>
+      <c r="I59" s="66"/>
     </row>
     <row r="60" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="56"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="67" t="s">
+      <c r="A60" s="120"/>
+      <c r="B60" s="130"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="115" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="68"/>
+      <c r="E60" s="131"/>
       <c r="F60" s="26"/>
       <c r="G60" s="28" t="s">
         <v>69</v>
@@ -3026,10 +3026,92 @@
       <c r="H60" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="I60" s="131"/>
+      <c r="I60" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B55"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I34:I37"/>
@@ -3054,88 +3136,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B55"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="126" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Test Scenario.xlsx
+++ b/Test Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezay\Documents\project Amazon\react-portfolio-master\MobileTesting_FinalProjekKatalonReza_KSAT006ONL015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C6A6A-E542-4C8F-8875-B1E05E68B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C611C89-8EB3-40FF-B639-FED65DC1866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6495" yWindow="16545" windowWidth="17280" windowHeight="7815" xr2:uid="{36F3BC68-EE03-4DE7-A275-6735470B43C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F3BC68-EE03-4DE7-A275-6735470B43C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +637,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -1232,7 +1244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1243,12 +1255,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1324,12 +1330,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1402,38 +1402,152 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1441,6 +1555,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1462,170 +1627,23 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1944,42 +1962,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300DC7BD-3D26-45EA-BCC5-6E2EB8AE646A}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="30"/>
-    <col min="3" max="5" width="23" style="30" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" style="30" customWidth="1"/>
-    <col min="7" max="7" width="20" style="30" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="30" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="30"/>
+    <col min="1" max="2" width="8.88671875" style="28"/>
+    <col min="3" max="5" width="23" style="28" customWidth="1"/>
+    <col min="6" max="6" width="32.5546875" style="28" customWidth="1"/>
+    <col min="7" max="7" width="20" style="28" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="28" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
+      <c r="B1" s="103"/>
       <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="68" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="29"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="29"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1987,29 +2005,29 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="68" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="73">
+      <c r="F3" s="103"/>
+      <c r="G3" s="124">
         <v>44754</v>
       </c>
-      <c r="H3" s="71"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="29"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2017,1019 +2035,1101 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="69"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="88" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="29"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="5">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="129">
         <v>16</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="130">
         <v>0</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="133">
         <v>0</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="106"/>
+      <c r="F8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="38" t="s">
+      <c r="H8" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40" t="s">
+      <c r="E9" s="92"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="82" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="41" t="s">
+      <c r="E10" s="94"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="122"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="82" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="122"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="84" t="s">
+      <c r="A12" s="95"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="45" t="s">
+      <c r="E12" s="88"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40" t="s">
+      <c r="E13" s="92"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="124" t="s">
+      <c r="I13" s="62" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="82" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="41" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="125"/>
+      <c r="I14" s="63"/>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="82" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="83"/>
+      <c r="E15" s="94"/>
       <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="125"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="84" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="45" t="s">
+      <c r="E16" s="88"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="126"/>
+      <c r="I16" s="64"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="40" t="s">
+      <c r="E17" s="92"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="125" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="82" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="41" t="s">
+      <c r="E18" s="94"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="41" t="s">
+      <c r="H18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="126"/>
     </row>
     <row r="19" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="82" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="83"/>
+      <c r="E19" s="94"/>
       <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="75"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="126"/>
     </row>
     <row r="20" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="84" t="s">
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45" t="s">
+      <c r="E20" s="88"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="127"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="40" t="s">
+      <c r="E21" s="92"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I21" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="82" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="83"/>
+      <c r="E22" s="94"/>
       <c r="F22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="58"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="111"/>
     </row>
     <row r="23" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="84" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="45" t="s">
+      <c r="E23" s="88"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="60"/>
+      <c r="I23" s="113"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40" t="s">
+      <c r="E24" s="92"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="82" t="s">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="83"/>
+      <c r="E25" s="94"/>
       <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="58"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="111"/>
     </row>
     <row r="26" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="84" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="45" t="s">
+      <c r="E26" s="88"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="60"/>
+      <c r="I26" s="113"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="77" t="s">
+      <c r="A27" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79" t="s">
+      <c r="B27" s="90"/>
+      <c r="C27" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="81"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="40" t="s">
+      <c r="E27" s="92"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="57" t="s">
+      <c r="I27" s="110" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="82" t="s">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="83"/>
+      <c r="E28" s="94"/>
       <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="58"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="111"/>
     </row>
     <row r="29" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="78"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="84" t="s">
+      <c r="A29" s="90"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="85"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="45" t="s">
+      <c r="E29" s="88"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="60"/>
+      <c r="I29" s="113"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="77" t="s">
+      <c r="B30" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="71" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="96" t="s">
         <v>20</v>
       </c>
       <c r="E30" s="97"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="52" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="110" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="78"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="98" t="s">
+      <c r="A31" s="90"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="99"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="58"/>
+      <c r="I31" s="111"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="98" t="s">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="99"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="58"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="111"/>
     </row>
     <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="100" t="s">
+      <c r="A33" s="95"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="99"/>
+      <c r="F33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="59"/>
+      <c r="I33" s="112"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79" t="s">
+      <c r="B34" s="90"/>
+      <c r="C34" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="61" t="s">
+      <c r="I34" s="114" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="98" t="s">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="106"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="9" t="s">
+      <c r="E35" s="74"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="62"/>
+      <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="98" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="106"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="62"/>
+      <c r="E36" s="74"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="100" t="s">
+      <c r="A37" s="95"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="107"/>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="101"/>
+      <c r="F37" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="63"/>
+      <c r="I37" s="116"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="108" t="s">
+      <c r="A38" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="79" t="s">
+      <c r="C38" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="104" t="s">
+      <c r="D38" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="12"/>
       <c r="G38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="I38" s="114" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="109"/>
-      <c r="B39" s="111"/>
-      <c r="C39" s="102"/>
-      <c r="D39" s="98" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="114"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="9" t="s">
+      <c r="E39" s="56"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="62"/>
+      <c r="I39" s="115"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="109"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="98" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="114"/>
-      <c r="F40" s="55" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="62"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="115"/>
     </row>
     <row r="41" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="109"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="98" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="19" t="s">
+      <c r="E41" s="83"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="62"/>
+      <c r="I41" s="115"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="89"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="63"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="105"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="24" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="64" t="s">
+      <c r="I43" s="117" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="98" t="s">
+      <c r="A44" s="65"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="114"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="23" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="21" t="s">
         <v>54</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="58"/>
+      <c r="I44" s="111"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="108"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="98" t="s">
+      <c r="A45" s="65"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="114"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="58"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="111"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="108"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="98" t="s">
+      <c r="A46" s="65"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="83"/>
+      <c r="F46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="58"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="117"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="115" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="119"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="11" t="s">
+      <c r="E47" s="58"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H47" s="17" t="s">
+      <c r="H47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="59"/>
+      <c r="I47" s="112"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="111"/>
-      <c r="C48" s="79" t="s">
+      <c r="B48" s="79"/>
+      <c r="C48" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="104" t="s">
+      <c r="D48" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="105"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="24" t="s">
+      <c r="E48" s="54"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="64" t="s">
+      <c r="I48" s="117" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="108"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="98" t="s">
+      <c r="A49" s="65"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="114"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="24" t="s">
+      <c r="E49" s="56"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="22" t="s">
         <v>54</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="58"/>
+      <c r="I49" s="111"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="108"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="98" t="s">
+      <c r="A50" s="65"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="114"/>
-      <c r="F50" s="56">
+      <c r="E50" s="56"/>
+      <c r="F50" s="52">
         <v>500</v>
       </c>
-      <c r="G50" s="54"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="58"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="111"/>
     </row>
     <row r="51" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="120"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="115" t="s">
+      <c r="A51" s="66"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="119"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26" t="s">
+      <c r="E51" s="58"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="60"/>
+      <c r="I51" s="113"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="108" t="s">
+      <c r="A52" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="111"/>
-      <c r="C52" s="79" t="s">
+      <c r="B52" s="79"/>
+      <c r="C52" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="105"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="24" t="s">
+      <c r="E52" s="54"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="57" t="s">
+      <c r="I52" s="110" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="108"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="98" t="s">
+      <c r="A53" s="65"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="114"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="24" t="s">
+      <c r="E53" s="56"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="22" t="s">
         <v>54</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="58"/>
+      <c r="I53" s="111"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="108"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="98" t="s">
+      <c r="A54" s="65"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="114"/>
-      <c r="F54" s="55">
+      <c r="E54" s="56"/>
+      <c r="F54" s="51">
         <v>9000000</v>
       </c>
-      <c r="G54" s="23"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="58"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="111"/>
     </row>
     <row r="55" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="120"/>
-      <c r="B55" s="118"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="115" t="s">
+      <c r="A55" s="66"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="119"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26" t="s">
+      <c r="E55" s="58"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H55" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="60"/>
+      <c r="I55" s="113"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="108" t="s">
+      <c r="A56" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="127" t="s">
+      <c r="B56" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="98" t="s">
+      <c r="D56" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="106"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="24" t="s">
+      <c r="E56" s="74"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="65" t="s">
+      <c r="I56" s="118" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="108"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="98" t="s">
+      <c r="A57" s="65"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="114"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="24" t="s">
+      <c r="E57" s="56"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="22" t="s">
         <v>65</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="66"/>
+      <c r="I57" s="119"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="108"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="98" t="s">
+      <c r="A58" s="65"/>
+      <c r="B58" s="69"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="114"/>
-      <c r="F58" s="23" t="s">
+      <c r="E58" s="56"/>
+      <c r="F58" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="66"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="119"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="108"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="98" t="s">
+      <c r="A59" s="65"/>
+      <c r="B59" s="69"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="114"/>
-      <c r="F59" s="14" t="s">
+      <c r="E59" s="56"/>
+      <c r="F59" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G59" s="23"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="66"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="119"/>
     </row>
     <row r="60" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="120"/>
-      <c r="B60" s="130"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="115" t="s">
+      <c r="A60" s="66"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="131"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="28" t="s">
+      <c r="E60" s="75"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I60" s="67"/>
+      <c r="I60" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I34:I37"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I56:I60"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D50:E50"/>
@@ -3054,88 +3154,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="B43:B55"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I34:I37"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="126" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>

--- a/Test Scenario.xlsx
+++ b/Test Scenario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezay\Documents\project Amazon\react-portfolio-master\MobileTesting_FinalProjekKatalonReza_KSAT006ONL015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C611C89-8EB3-40FF-B639-FED65DC1866B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42DF99A-348D-4583-B03D-01513DE12CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{36F3BC68-EE03-4DE7-A275-6735470B43C9}"/>
+    <workbookView xWindow="-1428" yWindow="396" windowWidth="23304" windowHeight="18600" xr2:uid="{36F3BC68-EE03-4DE7-A275-6735470B43C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1402,14 +1402,176 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1420,6 +1582,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1438,12 +1606,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,18 +1617,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1474,17 +1624,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1492,9 +1636,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1502,147 +1643,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1962,35 +1962,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300DC7BD-3D26-45EA-BCC5-6E2EB8AE646A}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="28"/>
-    <col min="3" max="5" width="23" style="28" customWidth="1"/>
-    <col min="6" max="6" width="32.5546875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="20" style="28" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="23" style="28" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="28" customWidth="1"/>
     <col min="9" max="16384" width="8.88671875" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
+      <c r="B1" s="71"/>
       <c r="C1" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D1" s="27"/>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -2005,22 +2008,22 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="103"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="27"/>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="124">
+      <c r="F3" s="71"/>
+      <c r="G3" s="75">
         <v>44754</v>
       </c>
-      <c r="H3" s="122"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -2035,24 +2038,24 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D5" s="27"/>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="131" t="s">
+      <c r="G5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="57" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="27"/>
@@ -2062,14 +2065,14 @@
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="129">
+      <c r="E6" s="91"/>
+      <c r="F6" s="54">
         <v>16</v>
       </c>
-      <c r="G6" s="130">
+      <c r="G6" s="55">
         <v>0</v>
       </c>
-      <c r="H6" s="133">
+      <c r="H6" s="58">
         <v>0</v>
       </c>
       <c r="I6" s="27"/>
@@ -2095,10 +2098,10 @@
       <c r="C8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="106"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="32" t="s">
         <v>14</v>
       </c>
@@ -2113,19 +2116,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="35"/>
       <c r="G9" s="36" t="s">
         <v>21</v>
@@ -2133,18 +2136,18 @@
       <c r="H9" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="59" t="s">
+      <c r="I9" s="115" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A10" s="90"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="93" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="94"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="35"/>
       <c r="G10" s="37" t="s">
         <v>23</v>
@@ -2152,31 +2155,31 @@
       <c r="H10" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="60"/>
+      <c r="I10" s="116"/>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="93" t="s">
+      <c r="A11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="38"/>
       <c r="H11" s="39"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="116"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="87" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="40"/>
       <c r="G12" s="41" t="s">
         <v>26</v>
@@ -2184,20 +2187,20 @@
       <c r="H12" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="61"/>
+      <c r="I12" s="117"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="D13" s="91" t="s">
+      <c r="D13" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="92"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="35"/>
       <c r="G13" s="36" t="s">
         <v>21</v>
@@ -2205,18 +2208,18 @@
       <c r="H13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I13" s="118" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="93" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="94"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="35"/>
       <c r="G14" s="37" t="s">
         <v>23</v>
@@ -2224,31 +2227,31 @@
       <c r="H14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="63"/>
+      <c r="I14" s="119"/>
     </row>
     <row r="15" spans="1:9" ht="51" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="93" t="s">
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="94"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="38"/>
       <c r="H15" s="39"/>
-      <c r="I15" s="63"/>
+      <c r="I15" s="119"/>
     </row>
     <row r="16" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A16" s="95"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="87" t="s">
+      <c r="A16" s="94"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="88"/>
+      <c r="E16" s="87"/>
       <c r="F16" s="42"/>
       <c r="G16" s="41" t="s">
         <v>28</v>
@@ -2256,20 +2259,20 @@
       <c r="H16" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="64"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="92"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="35"/>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2277,18 +2280,18 @@
       <c r="H17" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="125" t="s">
+      <c r="I17" s="76" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="93" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="94"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="35"/>
       <c r="G18" s="37" t="s">
         <v>23</v>
@@ -2296,31 +2299,31 @@
       <c r="H18" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="126"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="93" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="94"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="G19" s="38"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="126"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="87" t="s">
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="88"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41" t="s">
         <v>30</v>
@@ -2328,22 +2331,22 @@
       <c r="H20" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="127"/>
+      <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="92"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="44"/>
       <c r="G21" s="36" t="s">
         <v>21</v>
@@ -2351,33 +2354,33 @@
       <c r="H21" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="110" t="s">
+      <c r="I21" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="93" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="94"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="46"/>
-      <c r="I22" s="111"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="87" t="s">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="47"/>
       <c r="G23" s="41" t="s">
         <v>35</v>
@@ -2385,20 +2388,20 @@
       <c r="H23" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="113"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="71" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="92"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="35"/>
       <c r="G24" s="36" t="s">
         <v>21</v>
@@ -2406,33 +2409,33 @@
       <c r="H24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="110" t="s">
+      <c r="I24" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="93" t="s">
+      <c r="A25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="94"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="38"/>
       <c r="H25" s="46"/>
-      <c r="I25" s="111"/>
+      <c r="I25" s="60"/>
     </row>
     <row r="26" spans="1:9" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="87" t="s">
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="88"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="42"/>
       <c r="G26" s="41" t="s">
         <v>36</v>
@@ -2440,20 +2443,20 @@
       <c r="H26" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="113"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="71" t="s">
+      <c r="B27" s="80"/>
+      <c r="C27" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="92"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="44"/>
       <c r="G27" s="36" t="s">
         <v>21</v>
@@ -2461,33 +2464,33 @@
       <c r="H27" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="59" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="93" t="s">
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="94"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="111"/>
+      <c r="I28" s="60"/>
     </row>
     <row r="29" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A29" s="90"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="87" t="s">
+      <c r="A29" s="80"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="88"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="47"/>
       <c r="G29" s="41" t="s">
         <v>35</v>
@@ -2495,22 +2498,22 @@
       <c r="H29" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="113"/>
+      <c r="I29" s="62"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
+      <c r="A30" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="97"/>
+      <c r="E30" s="99"/>
       <c r="F30" s="5"/>
       <c r="G30" s="48" t="s">
         <v>21</v>
@@ -2518,18 +2521,18 @@
       <c r="H30" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="110" t="s">
+      <c r="I30" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="90"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="55" t="s">
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="83"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="1"/>
       <c r="G31" s="6" t="s">
         <v>41</v>
@@ -2537,29 +2540,29 @@
       <c r="H31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="111"/>
+      <c r="I31" s="60"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="55" t="s">
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="83"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="1"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
-      <c r="I32" s="111"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="98" t="s">
+      <c r="A33" s="94"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="99"/>
+      <c r="E33" s="103"/>
       <c r="F33" s="8" t="s">
         <v>103</v>
       </c>
@@ -2569,20 +2572,20 @@
       <c r="H33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="112"/>
+      <c r="I33" s="61"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="71" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="53" t="s">
+      <c r="D34" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="107"/>
       <c r="F34" s="12"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
@@ -2590,18 +2593,18 @@
       <c r="H34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="114" t="s">
+      <c r="I34" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="55" t="s">
+      <c r="A35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="74"/>
+      <c r="E35" s="108"/>
       <c r="F35" s="12"/>
       <c r="G35" s="7" t="s">
         <v>41</v>
@@ -2609,28 +2612,28 @@
       <c r="H35" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="115"/>
+      <c r="I35" s="64"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="55" t="s">
+      <c r="A36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="74"/>
+      <c r="E36" s="108"/>
       <c r="G36" s="7"/>
       <c r="H36" s="13"/>
-      <c r="I36" s="115"/>
+      <c r="I36" s="64"/>
     </row>
     <row r="37" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="98" t="s">
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="101"/>
+      <c r="E37" s="109"/>
       <c r="F37" s="14" t="s">
         <v>104</v>
       </c>
@@ -2640,22 +2643,22 @@
       <c r="H37" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I37" s="116"/>
+      <c r="I37" s="65"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="54"/>
+      <c r="E38" s="107"/>
       <c r="F38" s="12"/>
       <c r="G38" s="1" t="s">
         <v>21</v>
@@ -2663,18 +2666,18 @@
       <c r="H38" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="114" t="s">
+      <c r="I38" s="63" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="76"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="55" t="s">
+      <c r="A39" s="126"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="110"/>
       <c r="F39" s="12"/>
       <c r="G39" s="7" t="s">
         <v>48</v>
@@ -2682,31 +2685,31 @@
       <c r="H39" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I39" s="115"/>
+      <c r="I39" s="64"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="55" t="s">
+      <c r="A40" s="126"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E40" s="56"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="51" t="s">
         <v>102</v>
       </c>
       <c r="G40" s="17"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="115"/>
+      <c r="I40" s="64"/>
     </row>
     <row r="41" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A41" s="76"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="55" t="s">
+      <c r="A41" s="126"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="83"/>
+      <c r="E41" s="101"/>
       <c r="F41" s="6"/>
       <c r="G41" s="17" t="s">
         <v>51</v>
@@ -2714,33 +2717,33 @@
       <c r="H41" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I41" s="115"/>
+      <c r="I41" s="64"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="84"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="130"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="131"/>
       <c r="F42" s="19"/>
       <c r="G42" s="11"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="116"/>
+      <c r="I42" s="65"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="53" t="s">
+      <c r="D43" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="54"/>
+      <c r="E43" s="107"/>
       <c r="F43" s="12"/>
       <c r="G43" s="22" t="s">
         <v>21</v>
@@ -2748,18 +2751,18 @@
       <c r="H43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I43" s="117" t="s">
+      <c r="I43" s="66" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="55" t="s">
+      <c r="A44" s="113"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="56"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="12"/>
       <c r="G44" s="21" t="s">
         <v>54</v>
@@ -2767,44 +2770,44 @@
       <c r="H44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="111"/>
+      <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="55" t="s">
+      <c r="A45" s="113"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="56"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
       <c r="H45" s="17"/>
-      <c r="I45" s="111"/>
+      <c r="I45" s="60"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="55" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="83"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="6" t="s">
         <v>90</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="17"/>
-      <c r="I46" s="111"/>
+      <c r="I46" s="60"/>
     </row>
     <row r="47" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A47" s="85"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="57" t="s">
+      <c r="A47" s="132"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="58"/>
+      <c r="E47" s="112"/>
       <c r="F47" s="19"/>
       <c r="G47" s="9" t="s">
         <v>58</v>
@@ -2812,20 +2815,20 @@
       <c r="H47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I47" s="112"/>
+      <c r="I47" s="61"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="B48" s="79"/>
-      <c r="C48" s="71" t="s">
+      <c r="B48" s="128"/>
+      <c r="C48" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="54"/>
+      <c r="E48" s="107"/>
       <c r="F48" s="12"/>
       <c r="G48" s="22" t="s">
         <v>21</v>
@@ -2833,18 +2836,18 @@
       <c r="H48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="117" t="s">
+      <c r="I48" s="66" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="55" t="s">
+      <c r="A49" s="113"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="110"/>
       <c r="F49" s="12"/>
       <c r="G49" s="22" t="s">
         <v>54</v>
@@ -2852,31 +2855,31 @@
       <c r="H49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I49" s="111"/>
+      <c r="I49" s="60"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="55" t="s">
+      <c r="A50" s="113"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="110"/>
       <c r="F50" s="52">
         <v>500</v>
       </c>
       <c r="G50" s="50"/>
       <c r="H50" s="17"/>
-      <c r="I50" s="111"/>
+      <c r="I50" s="60"/>
     </row>
     <row r="51" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A51" s="66"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="57" t="s">
+      <c r="A51" s="114"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="58"/>
+      <c r="E51" s="112"/>
       <c r="F51" s="23"/>
       <c r="G51" s="24" t="s">
         <v>61</v>
@@ -2884,20 +2887,20 @@
       <c r="H51" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="I51" s="113"/>
+      <c r="I51" s="62"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="113" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="79"/>
-      <c r="C52" s="71" t="s">
+      <c r="B52" s="128"/>
+      <c r="C52" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="54"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="12"/>
       <c r="G52" s="22" t="s">
         <v>21</v>
@@ -2905,18 +2908,18 @@
       <c r="H52" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="110" t="s">
+      <c r="I52" s="59" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="55" t="s">
+      <c r="A53" s="113"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="56"/>
+      <c r="E53" s="110"/>
       <c r="F53" s="12"/>
       <c r="G53" s="22" t="s">
         <v>54</v>
@@ -2924,31 +2927,31 @@
       <c r="H53" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I53" s="111"/>
+      <c r="I53" s="60"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="55" t="s">
+      <c r="A54" s="113"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="88"/>
+      <c r="D54" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="110"/>
       <c r="F54" s="51">
         <v>9000000</v>
       </c>
       <c r="G54" s="21"/>
       <c r="H54" s="17"/>
-      <c r="I54" s="111"/>
+      <c r="I54" s="60"/>
     </row>
     <row r="55" spans="1:9" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="66"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="57" t="s">
+      <c r="A55" s="114"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="58"/>
+      <c r="E55" s="112"/>
       <c r="F55" s="23"/>
       <c r="G55" s="24" t="s">
         <v>62</v>
@@ -2956,22 +2959,22 @@
       <c r="H55" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="I55" s="113"/>
+      <c r="I55" s="62"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="71" t="s">
+      <c r="C56" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="74"/>
+      <c r="E56" s="108"/>
       <c r="F56" s="12"/>
       <c r="G56" s="22" t="s">
         <v>21</v>
@@ -2979,18 +2982,18 @@
       <c r="H56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="118" t="s">
+      <c r="I56" s="67" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="55" t="s">
+      <c r="A57" s="113"/>
+      <c r="B57" s="122"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="56"/>
+      <c r="E57" s="110"/>
       <c r="F57" s="12"/>
       <c r="G57" s="22" t="s">
         <v>65</v>
@@ -2998,45 +3001,45 @@
       <c r="H57" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="119"/>
+      <c r="I57" s="68"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
-      <c r="B58" s="69"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="55" t="s">
+      <c r="A58" s="113"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="E58" s="56"/>
+      <c r="E58" s="110"/>
       <c r="F58" s="21" t="s">
         <v>100</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="119"/>
+      <c r="I58" s="68"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
-      <c r="B59" s="69"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="55" t="s">
+      <c r="A59" s="113"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="E59" s="56"/>
+      <c r="E59" s="110"/>
       <c r="F59" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G59" s="21"/>
       <c r="H59" s="7"/>
-      <c r="I59" s="119"/>
+      <c r="I59" s="68"/>
     </row>
     <row r="60" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A60" s="66"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="73"/>
-      <c r="D60" s="57" t="s">
+      <c r="A60" s="114"/>
+      <c r="B60" s="124"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="75"/>
+      <c r="E60" s="125"/>
       <c r="F60" s="24"/>
       <c r="G60" s="26" t="s">
         <v>69</v>
@@ -3044,10 +3047,92 @@
       <c r="H60" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="I60" s="120"/>
+      <c r="I60" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="B43:B55"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="I30:I33"/>
     <mergeCell ref="I24:I26"/>
     <mergeCell ref="I34:I37"/>
@@ -3072,90 +3157,8 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:C60"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="B43:B55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="126" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>